--- a/01 Algo/pb Einstein.xlsx
+++ b/01 Algo/pb Einstein.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>Maison 1</t>
   </si>
@@ -204,37 +204,89 @@
     <t>dix&lt;0</t>
   </si>
   <si>
-    <t>25 ans</t>
-  </si>
-  <si>
-    <t>2 ans de permis</t>
-  </si>
-  <si>
-    <t>Nombre d'accident</t>
-  </si>
-  <si>
-    <t>Pus d'un an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bleu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vert </t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>jeté</t>
-  </si>
-  <si>
-    <t>moins de 25 ans</t>
-  </si>
-  <si>
-    <t>25 ans moins deux ans et 1 accident</t>
-  </si>
-  <si>
-    <t>25 ans plus de deux ans et plus d'1 accident</t>
+    <t>ECRIRE</t>
+  </si>
+  <si>
+    <t>LIRE</t>
+  </si>
+  <si>
+    <t>REQUETE</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>POUR</t>
+  </si>
+  <si>
+    <t>TANTQUE</t>
+  </si>
+  <si>
+    <t>LARP</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>printf("tata %d,a");</t>
+  </si>
+  <si>
+    <t>scanf("%d",&amp;prix);</t>
+  </si>
+  <si>
+    <t>printf("tata \n"); \n retour à la ligne</t>
+  </si>
+  <si>
+    <t>%d entier     
+%f  réel (. et pas ,)   
+%s chaine de caractères
+%c un caratère</t>
+  </si>
+  <si>
+    <t>int
+float</t>
+  </si>
+  <si>
+    <t>for (i=1; i&lt;=10;i++)
+{
+}</t>
+  </si>
+  <si>
+    <t>while(i&lt;&gt;0)
+{
+}</t>
+  </si>
+  <si>
+    <t>repeter JUSTEQU'A</t>
+  </si>
+  <si>
+    <t>if ()
+{
+}
+else
+{
+}</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;stdlib.h&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;string.h&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;ctype.h&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;stdbool.h&gt;</t>
+  </si>
+  <si>
+    <t>do
+{
+}
+while(boucle si vrai);</t>
   </si>
 </sst>
 </file>
@@ -570,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
@@ -649,6 +701,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,63 +1504,175 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="4" width="61.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B9" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>72</v>
+      <c r="B13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="31"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="31"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/01 Algo/pb Einstein.xlsx
+++ b/01 Algo/pb Einstein.xlsx
@@ -1507,7 +1507,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
